--- a/РАБОЧИЙ СТОЛ/Новороссийск/Новороссийск ЗПФ (2-й транш).xlsx
+++ b/РАБОЧИЙ СТОЛ/Новороссийск/Новороссийск ЗПФ (2-й транш).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\Новороссийск\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B466EC2-3858-4E3F-B3C4-9472E65F4A87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D971A3-1C21-41C5-893B-D68AA59A8533}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$O$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$P$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="86">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -198,9 +198,6 @@
     <t>Чебуреки сочные ВЕС ТМ Зареченские  ПОКОМ</t>
   </si>
   <si>
-    <t>ИТОГО, кг</t>
-  </si>
-  <si>
     <t>SU</t>
   </si>
   <si>
@@ -297,17 +294,18 @@
     <t>Крым</t>
   </si>
   <si>
-    <t>НВ</t>
+    <t>ИТОГО</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000;[Red]\-0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,6 +336,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="9">
@@ -417,7 +422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -446,9 +451,6 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" indent="2"/>
@@ -474,6 +476,25 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -5362,24 +5383,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58.42578125" customWidth="1"/>
-    <col min="5" max="7" width="12.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="41.28515625" customWidth="1"/>
-    <col min="10" max="13" width="8.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="39.85546875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="1"/>
+    <col min="4" max="4" width="9.140625" style="31"/>
+    <col min="5" max="5" width="12.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="8" width="12.42578125" style="37" customWidth="1"/>
+    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="41.28515625" hidden="1" customWidth="1"/>
+    <col min="11" max="14" width="8.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="39.85546875" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="0" style="1" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5389,42 +5413,45 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="H1" s="25" t="s">
+      <c r="J1" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="K1" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="L1" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="M1" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="N1" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="O1" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="O1" s="27"/>
+      <c r="P1" s="26"/>
     </row>
-    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -5434,20 +5461,21 @@
       <c r="C2" s="7">
         <v>482</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="28"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="8"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
       <c r="I2" s="8"/>
-      <c r="J2" s="4"/>
+      <c r="J2" s="8"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -5457,20 +5485,21 @@
       <c r="C3" s="7">
         <v>-3</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="28"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="8"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
       <c r="I3" s="8"/>
-      <c r="J3" s="4"/>
+      <c r="J3" s="8"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="4"/>
     </row>
-    <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -5480,20 +5509,21 @@
       <c r="C4" s="7">
         <v>194</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="8"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
       <c r="I4" s="8"/>
-      <c r="J4" s="4"/>
+      <c r="J4" s="8"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
@@ -5503,40 +5533,43 @@
       <c r="C5" s="12">
         <v>84</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="20">
         <f t="shared" ref="D5:D49" si="0">C5</f>
         <v>84</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="8" t="str">
+      <c r="F5" s="33"/>
+      <c r="G5" s="33">
+        <v>84</v>
+      </c>
+      <c r="H5" s="33"/>
+      <c r="I5" s="8" t="str">
         <f>VLOOKUP(A5,[1]Лист1!$A:$B,2,0)</f>
         <v>SU003887</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="J5" s="4">
+      <c r="J5" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" s="4">
         <v>59.4</v>
       </c>
-      <c r="K5" s="4">
+      <c r="L5" s="4">
         <v>25</v>
       </c>
-      <c r="L5" s="13">
+      <c r="M5" s="13">
         <v>69.8</v>
       </c>
-      <c r="M5" s="4">
+      <c r="N5" s="4">
         <v>73.8</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="O5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="4">
+      <c r="P5" s="4">
         <v>94.6</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>8</v>
       </c>
@@ -5546,40 +5579,43 @@
       <c r="C6" s="12">
         <v>3</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="20">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="8" t="str">
+      <c r="F6" s="33"/>
+      <c r="G6" s="33">
+        <v>3</v>
+      </c>
+      <c r="H6" s="33"/>
+      <c r="I6" s="8" t="str">
         <f>VLOOKUP(A6,[1]Лист1!$A:$B,2,0)</f>
         <v>SU003889</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="J6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
         <v>87.4</v>
       </c>
-      <c r="K6" s="4">
+      <c r="L6" s="4">
         <v>75</v>
       </c>
-      <c r="L6" s="13">
+      <c r="M6" s="13">
         <v>111.6</v>
       </c>
-      <c r="M6" s="4">
+      <c r="N6" s="4">
         <v>132</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="O6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="4">
+      <c r="P6" s="4">
         <v>356.2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
@@ -5589,40 +5625,43 @@
       <c r="C7" s="12">
         <v>511</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="29">
         <f>C7+C2</f>
         <v>993</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="8" t="str">
+      <c r="F7" s="33"/>
+      <c r="G7" s="33">
+        <v>993</v>
+      </c>
+      <c r="H7" s="33"/>
+      <c r="I7" s="8" t="str">
         <f>VLOOKUP(A7,[1]Лист1!$A:$B,2,0)</f>
         <v>SU003884</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="J7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
         <v>73</v>
       </c>
-      <c r="K7" s="4">
+      <c r="L7" s="4">
         <v>86.4</v>
       </c>
-      <c r="L7" s="13">
+      <c r="M7" s="13">
         <v>199.4</v>
       </c>
-      <c r="M7" s="4">
+      <c r="N7" s="4">
         <v>193.2</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="O7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="4">
+      <c r="P7" s="4">
         <v>336</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>10</v>
       </c>
@@ -5632,64 +5671,68 @@
       <c r="C8" s="12">
         <v>137</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="20">
         <f t="shared" si="0"/>
         <v>137</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="8" t="str">
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33">
+        <v>137</v>
+      </c>
+      <c r="I8" s="8" t="str">
         <f>VLOOKUP(A8,[1]Лист1!$A:$B,2,0)</f>
         <v>SU003605</v>
       </c>
-      <c r="I8" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J8" s="4">
+      <c r="J8" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" s="4">
         <v>20</v>
       </c>
-      <c r="K8" s="4">
+      <c r="L8" s="4">
         <v>0</v>
       </c>
-      <c r="L8" s="4">
+      <c r="M8" s="4">
         <v>12.6</v>
       </c>
-      <c r="M8" s="13">
+      <c r="N8" s="13">
         <v>23.2</v>
       </c>
-      <c r="N8" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="O8" s="4"/>
+      <c r="O8" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="P8" s="4"/>
     </row>
-    <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+    <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="17">
         <v>-7</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="30">
         <f t="shared" si="0"/>
         <v>-7</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
     </row>
-    <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>12</v>
       </c>
@@ -5699,40 +5742,43 @@
       <c r="C10" s="12">
         <v>6</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="20">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="8" t="str">
+      <c r="F10" s="33"/>
+      <c r="G10" s="33">
+        <v>6</v>
+      </c>
+      <c r="H10" s="33"/>
+      <c r="I10" s="8" t="str">
         <f>VLOOKUP(A10,[1]Лист1!$A:$B,2,0)</f>
         <v>SU003872</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="J10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K10" s="4">
         <v>21.6</v>
       </c>
-      <c r="K10" s="4">
+      <c r="L10" s="4">
         <v>43.4</v>
       </c>
-      <c r="L10" s="13">
+      <c r="M10" s="13">
         <v>34.4</v>
       </c>
-      <c r="M10" s="4">
+      <c r="N10" s="4">
         <v>63.6</v>
       </c>
-      <c r="N10" s="9" t="s">
+      <c r="O10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="4">
+      <c r="P10" s="4">
         <v>137.80000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>13</v>
       </c>
@@ -5742,40 +5788,43 @@
       <c r="C11" s="12">
         <v>121</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="20">
         <f t="shared" si="0"/>
         <v>121</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="8" t="str">
+      <c r="F11" s="33"/>
+      <c r="G11" s="33">
+        <v>121</v>
+      </c>
+      <c r="H11" s="33"/>
+      <c r="I11" s="8" t="str">
         <f>VLOOKUP(A11,[1]Лист1!$A:$B,2,0)</f>
         <v>SU003870</v>
       </c>
-      <c r="I11" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="J11" s="4">
+      <c r="J11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="4">
         <v>19.600000000000001</v>
       </c>
-      <c r="K11" s="4">
+      <c r="L11" s="4">
         <v>41.4</v>
       </c>
-      <c r="L11" s="13">
+      <c r="M11" s="13">
         <v>70.400000000000006</v>
       </c>
-      <c r="M11" s="4">
+      <c r="N11" s="4">
         <v>0</v>
       </c>
-      <c r="N11" s="9" t="s">
+      <c r="O11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O11" s="4">
+      <c r="P11" s="4">
         <v>176.4</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>14</v>
       </c>
@@ -5785,40 +5834,43 @@
       <c r="C12" s="12">
         <v>18.5</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="20">
         <f t="shared" si="0"/>
         <v>18.5</v>
       </c>
       <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="8" t="str">
+      <c r="F12" s="33"/>
+      <c r="G12" s="33">
+        <v>18.5</v>
+      </c>
+      <c r="H12" s="33"/>
+      <c r="I12" s="8" t="str">
         <f>VLOOKUP(A12,[1]Лист1!$A:$B,2,0)</f>
         <v>SU003454</v>
       </c>
-      <c r="I12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J12" s="4">
+      <c r="J12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12" s="4">
         <v>14.8</v>
       </c>
-      <c r="K12" s="4">
+      <c r="L12" s="4">
         <v>17.759999999999998</v>
       </c>
-      <c r="L12" s="13">
+      <c r="M12" s="13">
         <v>40.700000000000003</v>
       </c>
-      <c r="M12" s="4">
+      <c r="N12" s="4">
         <v>34.78</v>
       </c>
-      <c r="N12" s="9" t="s">
+      <c r="O12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="O12" s="4">
+      <c r="P12" s="4">
         <v>94.680199999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>16</v>
       </c>
@@ -5828,40 +5880,43 @@
       <c r="C13" s="12">
         <v>6</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="20">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="8" t="str">
+      <c r="F13" s="33"/>
+      <c r="G13" s="33">
+        <v>6</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="8" t="str">
         <f>VLOOKUP(A13,[1]Лист1!$A:$B,2,0)</f>
         <v>SU003448</v>
       </c>
-      <c r="I13" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="J13" s="4">
+      <c r="J13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="4">
         <v>6</v>
       </c>
-      <c r="K13" s="4">
+      <c r="L13" s="4">
         <v>9.6</v>
       </c>
-      <c r="L13" s="13">
+      <c r="M13" s="13">
         <v>32.54</v>
       </c>
-      <c r="M13" s="4">
+      <c r="N13" s="4">
         <v>13.8</v>
       </c>
-      <c r="N13" s="9" t="s">
+      <c r="O13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="O13" s="4">
+      <c r="P13" s="4">
         <v>97.2</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>17</v>
       </c>
@@ -5871,42 +5926,43 @@
       <c r="C14" s="12">
         <v>468</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="20">
         <f t="shared" si="0"/>
         <v>468</v>
       </c>
       <c r="E14" s="13"/>
-      <c r="F14" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="8" t="str">
+      <c r="F14" s="35">
+        <v>468</v>
+      </c>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="8" t="str">
         <f>VLOOKUP(A14,[1]Лист1!$A:$B,2,0)</f>
         <v>SU003797</v>
       </c>
-      <c r="I14" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="J14" s="4">
+      <c r="J14" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K14" s="4">
         <v>37.200000000000003</v>
       </c>
-      <c r="K14" s="4">
+      <c r="L14" s="4">
         <v>69.400000000000006</v>
       </c>
-      <c r="L14" s="4">
+      <c r="M14" s="4">
         <v>79.8</v>
       </c>
-      <c r="M14" s="4">
+      <c r="N14" s="4">
         <v>86.4</v>
       </c>
-      <c r="N14" s="9" t="s">
+      <c r="O14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="O14" s="13">
+      <c r="P14" s="13">
         <v>411.6</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>18</v>
       </c>
@@ -5916,40 +5972,43 @@
       <c r="C15" s="12">
         <v>2</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="20">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="8" t="str">
+      <c r="F15" s="33"/>
+      <c r="G15" s="33">
+        <v>2</v>
+      </c>
+      <c r="H15" s="33"/>
+      <c r="I15" s="8" t="str">
         <f>VLOOKUP(A15,[1]Лист1!$A:$B,2,0)</f>
         <v>SU003598</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="J15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="4">
+      <c r="K15" s="4">
         <v>60.2</v>
       </c>
-      <c r="K15" s="4">
+      <c r="L15" s="4">
         <v>38.4</v>
       </c>
-      <c r="L15" s="13">
+      <c r="M15" s="13">
         <v>92</v>
       </c>
-      <c r="M15" s="4">
+      <c r="N15" s="4">
         <v>121.8</v>
       </c>
-      <c r="N15" s="9" t="s">
+      <c r="O15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="O15" s="4">
+      <c r="P15" s="4">
         <v>324.8</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>19</v>
       </c>
@@ -5959,42 +6018,43 @@
       <c r="C16" s="12">
         <v>242</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="20">
         <f t="shared" si="0"/>
         <v>242</v>
       </c>
       <c r="E16" s="13"/>
-      <c r="F16" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="8" t="str">
+      <c r="F16" s="35">
+        <v>242</v>
+      </c>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="8" t="str">
         <f>VLOOKUP(A16,[1]Лист1!$A:$B,2,0)</f>
         <v>SU003800</v>
       </c>
-      <c r="I16" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="J16" s="4">
+      <c r="J16" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K16" s="4">
         <v>51.6</v>
       </c>
-      <c r="K16" s="4">
+      <c r="L16" s="4">
         <v>99</v>
       </c>
-      <c r="L16" s="4">
+      <c r="M16" s="4">
         <v>81.599999999999994</v>
       </c>
-      <c r="M16" s="4">
+      <c r="N16" s="4">
         <v>110.8</v>
       </c>
-      <c r="N16" s="9" t="s">
+      <c r="O16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="O16" s="13">
+      <c r="P16" s="13">
         <v>386.4</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>20</v>
       </c>
@@ -6004,42 +6064,43 @@
       <c r="C17" s="12">
         <v>228</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="20">
         <f t="shared" si="0"/>
         <v>228</v>
       </c>
       <c r="E17" s="13"/>
-      <c r="F17" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="8" t="str">
+      <c r="F17" s="35">
+        <v>228</v>
+      </c>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="8" t="str">
         <f>VLOOKUP(A17,[1]Лист1!$A:$B,2,0)</f>
         <v>SU003795</v>
       </c>
-      <c r="I17" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J17" s="4">
+      <c r="J17" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K17" s="4">
         <v>48.8</v>
       </c>
-      <c r="K17" s="4">
+      <c r="L17" s="4">
         <v>41.6</v>
       </c>
-      <c r="L17" s="4">
+      <c r="M17" s="4">
         <v>57.8</v>
       </c>
-      <c r="M17" s="4">
+      <c r="N17" s="4">
         <v>115</v>
       </c>
-      <c r="N17" s="9" t="s">
+      <c r="O17" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="O17" s="13">
+      <c r="P17" s="13">
         <v>353.4</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>21</v>
       </c>
@@ -6049,40 +6110,43 @@
       <c r="C18" s="12">
         <v>6</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="20">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="8" t="str">
+      <c r="F18" s="33"/>
+      <c r="G18" s="33">
+        <v>6</v>
+      </c>
+      <c r="H18" s="33"/>
+      <c r="I18" s="8" t="str">
         <f>VLOOKUP(A18,[1]Лист1!$A:$B,2,0)</f>
         <v>SU003020</v>
       </c>
-      <c r="I18" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="J18" s="4">
+      <c r="J18" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K18" s="4">
         <v>28.8</v>
       </c>
-      <c r="K18" s="4">
+      <c r="L18" s="4">
         <v>48</v>
       </c>
-      <c r="L18" s="13">
+      <c r="M18" s="13">
         <v>45.6</v>
       </c>
-      <c r="M18" s="4">
+      <c r="N18" s="4">
         <v>56.2</v>
       </c>
-      <c r="N18" s="9" t="s">
+      <c r="O18" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="O18" s="4">
+      <c r="P18" s="4">
         <v>302.39999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>22</v>
       </c>
@@ -6092,42 +6156,43 @@
       <c r="C19" s="12">
         <v>190</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="20">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
       <c r="E19" s="13"/>
-      <c r="F19" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="8" t="str">
+      <c r="F19" s="35">
+        <v>190</v>
+      </c>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="8" t="str">
         <f>VLOOKUP(A19,[1]Лист1!$A:$B,2,0)</f>
         <v>SU003930</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="J19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="4">
+      <c r="K19" s="4">
         <v>20.2</v>
       </c>
-      <c r="K19" s="13">
+      <c r="L19" s="13">
         <v>53.8</v>
       </c>
-      <c r="L19" s="4">
+      <c r="M19" s="4">
         <v>25.4</v>
       </c>
-      <c r="M19" s="4">
+      <c r="N19" s="4">
         <v>11.6</v>
       </c>
-      <c r="N19" s="9" t="s">
+      <c r="O19" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="O19" s="13">
+      <c r="P19" s="13">
         <v>66.2</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>23</v>
       </c>
@@ -6137,40 +6202,43 @@
       <c r="C20" s="12">
         <v>37</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="20">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="8" t="str">
+      <c r="F20" s="33"/>
+      <c r="G20" s="33">
+        <v>37</v>
+      </c>
+      <c r="H20" s="33"/>
+      <c r="I20" s="8" t="str">
         <f>VLOOKUP(A20,[1]Лист1!$A:$B,2,0)</f>
         <v>SU003596</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="J20" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J20" s="4">
+      <c r="K20" s="4">
         <v>22.6</v>
       </c>
-      <c r="K20" s="4">
+      <c r="L20" s="4">
         <v>23</v>
       </c>
-      <c r="L20" s="13">
+      <c r="M20" s="13">
         <v>24.4</v>
       </c>
-      <c r="M20" s="4">
+      <c r="N20" s="4">
         <v>0</v>
       </c>
-      <c r="N20" s="9" t="s">
+      <c r="O20" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="O20" s="4">
+      <c r="P20" s="4">
         <v>78.8</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>24</v>
       </c>
@@ -6180,40 +6248,43 @@
       <c r="C21" s="12">
         <v>70</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="20">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="8" t="str">
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33">
+        <v>70</v>
+      </c>
+      <c r="I21" s="8" t="str">
         <f>VLOOKUP(A21,[1]Лист1!$A:$B,2,0)</f>
         <v>SU003532</v>
       </c>
-      <c r="I21" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="J21" s="4">
+      <c r="J21" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K21" s="4">
         <v>51</v>
       </c>
-      <c r="K21" s="4">
+      <c r="L21" s="4">
         <v>40.4</v>
       </c>
-      <c r="L21" s="4">
+      <c r="M21" s="4">
         <v>11</v>
       </c>
-      <c r="M21" s="13">
+      <c r="N21" s="13">
         <v>58.2</v>
       </c>
-      <c r="N21" s="9" t="s">
+      <c r="O21" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="O21" s="4">
+      <c r="P21" s="4">
         <v>198</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>25</v>
       </c>
@@ -6223,34 +6294,35 @@
       <c r="C22" s="12">
         <v>83</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="20">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
       <c r="E22" s="13"/>
-      <c r="F22" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="8" t="str">
+      <c r="F22" s="35">
+        <v>83</v>
+      </c>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="8" t="str">
         <f>VLOOKUP(A22,[1]Лист1!$A:$B,2,0)</f>
         <v>SU003530</v>
       </c>
-      <c r="I22" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="J22" s="4"/>
+      <c r="J22" s="14" t="s">
+        <v>81</v>
+      </c>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
-      <c r="N22" s="9" t="s">
+      <c r="N22" s="4"/>
+      <c r="O22" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="O22" s="13">
+      <c r="P22" s="13">
         <v>37.6</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>26</v>
       </c>
@@ -6260,40 +6332,43 @@
       <c r="C23" s="12">
         <v>20</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="20">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="8" t="str">
+      <c r="F23" s="33"/>
+      <c r="G23" s="33">
+        <v>20</v>
+      </c>
+      <c r="H23" s="33"/>
+      <c r="I23" s="8" t="str">
         <f>VLOOKUP(A23,[1]Лист1!$A:$B,2,0)</f>
         <v>SU003529</v>
       </c>
-      <c r="I23" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="J23" s="4">
+      <c r="J23" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K23" s="4">
         <v>36.4</v>
       </c>
-      <c r="K23" s="4">
+      <c r="L23" s="4">
         <v>0</v>
       </c>
-      <c r="L23" s="13">
+      <c r="M23" s="13">
         <v>20.2</v>
       </c>
-      <c r="M23" s="4">
+      <c r="N23" s="4">
         <v>15.8</v>
       </c>
-      <c r="N23" s="9" t="s">
+      <c r="O23" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="O23" s="4">
+      <c r="P23" s="4">
         <v>245</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>27</v>
       </c>
@@ -6303,66 +6378,70 @@
       <c r="C24" s="12">
         <v>16</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="20">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="8" t="str">
+      <c r="F24" s="33"/>
+      <c r="G24" s="33">
+        <v>16</v>
+      </c>
+      <c r="H24" s="33"/>
+      <c r="I24" s="8" t="str">
         <f>VLOOKUP(A24,[1]Лист1!$A:$B,2,0)</f>
         <v>SU003385</v>
       </c>
-      <c r="I24" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="J24" s="4">
+      <c r="J24" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="K24" s="4">
         <v>57.8</v>
       </c>
-      <c r="K24" s="4">
+      <c r="L24" s="4">
         <v>23.8</v>
       </c>
-      <c r="L24" s="13">
+      <c r="M24" s="13">
         <v>56.6</v>
       </c>
-      <c r="M24" s="4">
+      <c r="N24" s="4">
         <v>66.599999999999994</v>
       </c>
-      <c r="N24" s="9" t="s">
+      <c r="O24" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="O24" s="4">
+      <c r="P24" s="4">
         <v>340.6</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
+    <row r="25" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="17">
         <v>2</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="29">
         <f>C25+C3</f>
         <v>-1</v>
       </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
     </row>
-    <row r="26" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>29</v>
       </c>
@@ -6372,34 +6451,35 @@
       <c r="C26" s="12">
         <v>75</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="20">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="E26" s="13"/>
-      <c r="F26" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="8" t="str">
+      <c r="F26" s="35">
+        <v>75</v>
+      </c>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="8" t="str">
         <f>VLOOKUP(A26,[1]Лист1!$A:$B,2,0)</f>
         <v>SU003845</v>
       </c>
-      <c r="I26" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="J26" s="4"/>
+      <c r="J26" s="14" t="s">
+        <v>81</v>
+      </c>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
-      <c r="N26" s="9" t="s">
+      <c r="N26" s="4"/>
+      <c r="O26" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="O26" s="13">
+      <c r="P26" s="13">
         <v>19.2</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>30</v>
       </c>
@@ -6409,66 +6489,70 @@
       <c r="C27" s="12">
         <v>5</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="8" t="str">
+      <c r="F27" s="33"/>
+      <c r="G27" s="33">
+        <v>5</v>
+      </c>
+      <c r="H27" s="33"/>
+      <c r="I27" s="8" t="str">
         <f>VLOOKUP(A27,[1]Лист1!$A:$B,2,0)</f>
         <v>SU002595</v>
       </c>
-      <c r="I27" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="J27" s="4">
+      <c r="J27" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K27" s="4">
         <v>60</v>
       </c>
-      <c r="K27" s="4">
+      <c r="L27" s="4">
         <v>50</v>
       </c>
-      <c r="L27" s="13">
+      <c r="M27" s="13">
         <v>78</v>
       </c>
-      <c r="M27" s="4">
+      <c r="N27" s="4">
         <v>75</v>
       </c>
-      <c r="N27" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="O27" s="4">
+      <c r="O27" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P27" s="4">
         <v>363.2</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
+    <row r="28" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="17">
         <v>-3</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="30">
         <f t="shared" si="0"/>
         <v>-3</v>
       </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
     </row>
-    <row r="29" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>32</v>
       </c>
@@ -6478,42 +6562,43 @@
       <c r="C29" s="12">
         <v>304</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="29">
         <f>C29+C4</f>
         <v>498</v>
       </c>
       <c r="E29" s="13"/>
-      <c r="F29" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G29" s="13"/>
-      <c r="H29" s="8" t="str">
+      <c r="F29" s="35">
+        <v>498</v>
+      </c>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="8" t="str">
         <f>VLOOKUP(A29,[1]Лист1!$A:$B,2,0)</f>
         <v>SU003460</v>
       </c>
-      <c r="I29" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="J29" s="4">
+      <c r="J29" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="K29" s="4">
         <v>95.4</v>
       </c>
-      <c r="K29" s="4">
+      <c r="L29" s="4">
         <v>34</v>
       </c>
-      <c r="L29" s="4">
+      <c r="M29" s="4">
         <v>56.6</v>
       </c>
-      <c r="M29" s="4">
+      <c r="N29" s="4">
         <v>122.4</v>
       </c>
-      <c r="N29" s="9" t="s">
+      <c r="O29" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="O29" s="13">
+      <c r="P29" s="13">
         <v>541</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>33</v>
       </c>
@@ -6523,42 +6608,43 @@
       <c r="C30" s="12">
         <v>347</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="20">
         <f t="shared" si="0"/>
         <v>347</v>
       </c>
       <c r="E30" s="13"/>
-      <c r="F30" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G30" s="13"/>
-      <c r="H30" s="8" t="str">
+      <c r="F30" s="35">
+        <v>347</v>
+      </c>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="8" t="str">
         <f>VLOOKUP(A30,[1]Лист1!$A:$B,2,0)</f>
         <v>SU003528</v>
       </c>
-      <c r="I30" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="J30" s="4">
+      <c r="J30" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K30" s="4">
         <v>14.2</v>
       </c>
-      <c r="K30" s="4">
+      <c r="L30" s="4">
         <v>9</v>
       </c>
-      <c r="L30" s="4">
+      <c r="M30" s="4">
         <v>24</v>
       </c>
-      <c r="M30" s="4">
+      <c r="N30" s="4">
         <v>22.6</v>
       </c>
-      <c r="N30" s="9" t="s">
+      <c r="O30" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="O30" s="13">
+      <c r="P30" s="13">
         <v>295</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>34</v>
       </c>
@@ -6568,42 +6654,43 @@
       <c r="C31" s="12">
         <v>366</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="20">
         <f t="shared" si="0"/>
         <v>366</v>
       </c>
       <c r="E31" s="13"/>
-      <c r="F31" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G31" s="13"/>
-      <c r="H31" s="8" t="str">
+      <c r="F31" s="35">
+        <v>366</v>
+      </c>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="8" t="str">
         <f>VLOOKUP(A31,[1]Лист1!$A:$B,2,0)</f>
         <v>SU003459</v>
       </c>
-      <c r="I31" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J31" s="4">
+      <c r="J31" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K31" s="4">
         <v>167</v>
       </c>
-      <c r="K31" s="4">
+      <c r="L31" s="4">
         <v>93.8</v>
       </c>
-      <c r="L31" s="4">
+      <c r="M31" s="4">
         <v>109.6</v>
       </c>
-      <c r="M31" s="4">
+      <c r="N31" s="4">
         <v>224.2</v>
       </c>
-      <c r="N31" s="9" t="s">
+      <c r="O31" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="O31" s="13">
+      <c r="P31" s="13">
         <v>668.8</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>35</v>
       </c>
@@ -6613,40 +6700,43 @@
       <c r="C32" s="12">
         <v>46</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="20">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="8" t="str">
+      <c r="F32" s="33"/>
+      <c r="G32" s="33">
+        <v>46</v>
+      </c>
+      <c r="H32" s="33"/>
+      <c r="I32" s="8" t="str">
         <f>VLOOKUP(A32,[1]Лист1!$A:$B,2,0)</f>
         <v>SU003945</v>
       </c>
-      <c r="I32" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="J32" s="4">
+      <c r="J32" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K32" s="4">
         <v>7</v>
       </c>
-      <c r="K32" s="4">
+      <c r="L32" s="4">
         <v>0</v>
       </c>
-      <c r="L32" s="13">
+      <c r="M32" s="13">
         <v>23.4</v>
       </c>
-      <c r="M32" s="4">
+      <c r="N32" s="4">
         <v>16.2</v>
       </c>
-      <c r="N32" s="9" t="s">
+      <c r="O32" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="O32" s="4">
+      <c r="P32" s="4">
         <v>32.6</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>36</v>
       </c>
@@ -6656,42 +6746,43 @@
       <c r="C33" s="12">
         <v>224</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="20">
         <f t="shared" si="0"/>
         <v>224</v>
       </c>
       <c r="E33" s="13"/>
-      <c r="F33" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G33" s="13"/>
-      <c r="H33" s="8" t="str">
+      <c r="F33" s="35">
+        <v>224</v>
+      </c>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="8" t="str">
         <f>VLOOKUP(A33,[1]Лист1!$A:$B,2,0)</f>
         <v>SU003935</v>
       </c>
-      <c r="I33" s="8" t="s">
+      <c r="J33" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J33" s="4">
+      <c r="K33" s="4">
         <v>38.799999999999997</v>
       </c>
-      <c r="K33" s="4">
+      <c r="L33" s="4">
         <v>51.2</v>
       </c>
-      <c r="L33" s="13">
+      <c r="M33" s="13">
         <v>57.6</v>
       </c>
-      <c r="M33" s="4">
+      <c r="N33" s="4">
         <v>40.4</v>
       </c>
-      <c r="N33" s="9" t="s">
+      <c r="O33" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O33" s="13">
+      <c r="P33" s="13">
         <v>88.4</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>37</v>
       </c>
@@ -6701,40 +6792,43 @@
       <c r="C34" s="12">
         <v>66</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="20">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="8" t="str">
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33">
+        <v>66</v>
+      </c>
+      <c r="I34" s="8" t="str">
         <f>VLOOKUP(A34,[1]Лист1!$A:$B,2,0)</f>
         <v>SU003975</v>
       </c>
-      <c r="I34" s="8" t="s">
+      <c r="J34" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="J34" s="4">
+      <c r="K34" s="4">
         <v>20</v>
       </c>
-      <c r="K34" s="4">
+      <c r="L34" s="4">
         <v>12.8</v>
       </c>
-      <c r="L34" s="4">
+      <c r="M34" s="4">
         <v>13.4</v>
       </c>
-      <c r="M34" s="13">
+      <c r="N34" s="13">
         <v>49.6</v>
       </c>
-      <c r="N34" s="9" t="s">
+      <c r="O34" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="O34" s="4">
+      <c r="P34" s="4">
         <v>144</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>38</v>
       </c>
@@ -6744,32 +6838,33 @@
       <c r="C35" s="12">
         <v>121</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D35" s="20">
         <f t="shared" si="0"/>
         <v>121</v>
       </c>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="H35" s="22" t="str">
+      <c r="E35" s="23"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36">
+        <v>121</v>
+      </c>
+      <c r="I35" s="21" t="str">
         <f>VLOOKUP(A35,[1]Лист1!$A:$B,2,0)</f>
         <v>SU003972</v>
       </c>
-      <c r="I35" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="O35" s="24"/>
+      <c r="J35" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="P35" s="23"/>
     </row>
-    <row r="36" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>39</v>
       </c>
@@ -6779,38 +6874,41 @@
       <c r="C36" s="12">
         <v>6</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D36" s="20">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="8" t="str">
+      <c r="F36" s="33"/>
+      <c r="G36" s="33">
+        <v>6</v>
+      </c>
+      <c r="H36" s="33"/>
+      <c r="I36" s="8" t="str">
         <f>VLOOKUP(A36,[1]Лист1!$A:$B,2,0)</f>
         <v>SU003971</v>
       </c>
-      <c r="I36" s="8" t="s">
+      <c r="J36" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="J36" s="4">
+      <c r="K36" s="4">
         <v>12.8</v>
       </c>
-      <c r="K36" s="4">
+      <c r="L36" s="4">
         <v>5.4</v>
       </c>
-      <c r="L36" s="13">
+      <c r="M36" s="13">
         <v>8</v>
       </c>
-      <c r="M36" s="4">
+      <c r="N36" s="4">
         <v>46.8</v>
       </c>
-      <c r="N36" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="O36" s="4"/>
+      <c r="O36" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="P36" s="4"/>
     </row>
-    <row r="37" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>40</v>
       </c>
@@ -6820,32 +6918,33 @@
       <c r="C37" s="12">
         <v>163</v>
       </c>
-      <c r="D37" s="21">
+      <c r="D37" s="20">
         <f t="shared" si="0"/>
         <v>163</v>
       </c>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="H37" s="22" t="str">
+      <c r="E37" s="23"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36">
+        <v>163</v>
+      </c>
+      <c r="I37" s="21" t="str">
         <f>VLOOKUP(A37,[1]Лист1!$A:$B,2,0)</f>
         <v>SU003974</v>
       </c>
-      <c r="I37" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="O37" s="24"/>
+      <c r="J37" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="P37" s="23"/>
     </row>
-    <row r="38" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>41</v>
       </c>
@@ -6855,40 +6954,43 @@
       <c r="C38" s="12">
         <v>15</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D38" s="20">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="8" t="str">
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33">
+        <v>15</v>
+      </c>
+      <c r="I38" s="8" t="str">
         <f>VLOOKUP(A38,[1]Лист1!$A:$B,2,0)</f>
         <v>SU002268</v>
       </c>
-      <c r="I38" s="8" t="s">
+      <c r="J38" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="J38" s="4">
+      <c r="K38" s="4">
         <v>42</v>
-      </c>
-      <c r="K38" s="4">
-        <v>0</v>
       </c>
       <c r="L38" s="4">
         <v>0</v>
       </c>
-      <c r="M38" s="13">
+      <c r="M38" s="4">
+        <v>0</v>
+      </c>
+      <c r="N38" s="13">
         <v>154.6</v>
       </c>
-      <c r="N38" s="9" t="s">
+      <c r="O38" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="O38" s="4">
+      <c r="P38" s="4">
         <v>174.6</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>42</v>
       </c>
@@ -6898,40 +7000,43 @@
       <c r="C39" s="12">
         <v>3.7</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D39" s="20">
         <f t="shared" si="0"/>
         <v>3.7</v>
       </c>
       <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="8" t="str">
+      <c r="F39" s="33"/>
+      <c r="G39" s="33">
+        <v>3.7</v>
+      </c>
+      <c r="H39" s="33"/>
+      <c r="I39" s="8" t="str">
         <f>VLOOKUP(A39,[1]Лист1!$A:$B,2,0)</f>
         <v>SU003439</v>
       </c>
-      <c r="I39" s="8" t="s">
+      <c r="J39" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J39" s="4">
+      <c r="K39" s="4">
         <v>0</v>
       </c>
-      <c r="K39" s="4">
+      <c r="L39" s="4">
         <v>32.56</v>
       </c>
-      <c r="L39" s="13">
+      <c r="M39" s="13">
         <v>73.260000000000005</v>
       </c>
-      <c r="M39" s="4">
+      <c r="N39" s="4">
         <v>0</v>
       </c>
-      <c r="N39" s="9" t="s">
+      <c r="O39" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="O39" s="4">
+      <c r="P39" s="4">
         <v>21.463000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>43</v>
       </c>
@@ -6941,32 +7046,33 @@
       <c r="C40" s="12">
         <v>44.4</v>
       </c>
-      <c r="D40" s="21">
+      <c r="D40" s="20">
         <f t="shared" si="0"/>
         <v>44.4</v>
       </c>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="H40" s="22" t="str">
+      <c r="E40" s="23"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36">
+        <v>44.4</v>
+      </c>
+      <c r="H40" s="36"/>
+      <c r="I40" s="21" t="str">
         <f>VLOOKUP(A40,[1]Лист1!$A:$B,2,0)</f>
         <v>SU003444</v>
       </c>
-      <c r="I40" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="O40" s="24"/>
+      <c r="J40" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="K40" s="23"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="P40" s="23"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>44</v>
       </c>
@@ -6976,32 +7082,35 @@
       <c r="C41" s="12">
         <v>2.29</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D41" s="20">
         <f t="shared" si="0"/>
         <v>2.29</v>
       </c>
       <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="8" t="str">
+      <c r="F41" s="35">
+        <v>2.29</v>
+      </c>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="8" t="str">
         <f>VLOOKUP(A41,[1]Лист1!$A:$B,2,0)</f>
         <v>SU003025</v>
       </c>
-      <c r="I41" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="J41" s="4"/>
+      <c r="J41" s="14" t="s">
+        <v>81</v>
+      </c>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
-      <c r="N41" s="9" t="s">
+      <c r="N41" s="4"/>
+      <c r="O41" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="O41" s="4">
+      <c r="P41" s="4">
         <v>27.360000000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>45</v>
       </c>
@@ -7011,40 +7120,43 @@
       <c r="C42" s="12">
         <v>3</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D42" s="20">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="8" t="str">
+      <c r="F42" s="33"/>
+      <c r="G42" s="33">
+        <v>3</v>
+      </c>
+      <c r="H42" s="33"/>
+      <c r="I42" s="8" t="str">
         <f>VLOOKUP(A42,[1]Лист1!$A:$B,2,0)</f>
         <v>SU003632</v>
       </c>
-      <c r="I42" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="J42" s="4">
-        <v>0</v>
+      <c r="J42" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="K42" s="4">
         <v>0</v>
       </c>
-      <c r="L42" s="13">
+      <c r="L42" s="4">
+        <v>0</v>
+      </c>
+      <c r="M42" s="13">
         <v>12.2</v>
       </c>
-      <c r="M42" s="4">
+      <c r="N42" s="4">
         <v>3.6</v>
       </c>
-      <c r="N42" s="9" t="s">
+      <c r="O42" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="O42" s="4">
+      <c r="P42" s="4">
         <v>58.4</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>46</v>
       </c>
@@ -7054,40 +7166,43 @@
       <c r="C43" s="12">
         <v>75</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D43" s="20">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="8" t="str">
+      <c r="F43" s="33"/>
+      <c r="G43" s="33">
+        <v>75</v>
+      </c>
+      <c r="H43" s="33"/>
+      <c r="I43" s="8" t="str">
         <f>VLOOKUP(A43,[1]Лист1!$A:$B,2,0)</f>
         <v>SU003944</v>
       </c>
-      <c r="I43" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="J43" s="4">
+      <c r="J43" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="K43" s="4">
         <v>22</v>
       </c>
-      <c r="K43" s="4">
+      <c r="L43" s="4">
         <v>26.8</v>
       </c>
-      <c r="L43" s="13">
+      <c r="M43" s="13">
         <v>49.2</v>
       </c>
-      <c r="M43" s="4">
+      <c r="N43" s="4">
         <v>55.2</v>
       </c>
-      <c r="N43" s="9" t="s">
+      <c r="O43" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="O43" s="4">
+      <c r="P43" s="4">
         <v>125.2</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>47</v>
       </c>
@@ -7097,40 +7212,43 @@
       <c r="C44" s="12">
         <v>12</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D44" s="20">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="8" t="str">
+      <c r="F44" s="33"/>
+      <c r="G44" s="33">
+        <v>12</v>
+      </c>
+      <c r="H44" s="33"/>
+      <c r="I44" s="8" t="str">
         <f>VLOOKUP(A44,[1]Лист1!$A:$B,2,0)</f>
         <v>SU003607</v>
       </c>
-      <c r="I44" s="8" t="s">
+      <c r="J44" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="J44" s="4">
+      <c r="K44" s="4">
         <v>84.6</v>
       </c>
-      <c r="K44" s="4">
+      <c r="L44" s="4">
         <v>55.4</v>
       </c>
-      <c r="L44" s="13">
+      <c r="M44" s="13">
         <v>82.2</v>
       </c>
-      <c r="M44" s="4">
+      <c r="N44" s="4">
         <v>184.6</v>
       </c>
-      <c r="N44" s="9" t="s">
+      <c r="O44" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="O44" s="4">
+      <c r="P44" s="4">
         <v>127.4</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>48</v>
       </c>
@@ -7140,40 +7258,43 @@
       <c r="C45" s="12">
         <v>318</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D45" s="20">
         <f t="shared" si="0"/>
         <v>318</v>
       </c>
       <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="8" t="str">
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33">
+        <v>318</v>
+      </c>
+      <c r="I45" s="8" t="str">
         <f>VLOOKUP(A45,[1]Лист1!$A:$B,2,0)</f>
         <v>SU003591</v>
       </c>
-      <c r="I45" s="8" t="s">
+      <c r="J45" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="J45" s="4">
+      <c r="K45" s="4">
         <v>108.6</v>
       </c>
-      <c r="K45" s="4">
+      <c r="L45" s="4">
         <v>122.4</v>
       </c>
-      <c r="L45" s="4">
+      <c r="M45" s="4">
         <v>108.4</v>
       </c>
-      <c r="M45" s="13">
+      <c r="N45" s="13">
         <v>169.8</v>
       </c>
-      <c r="N45" s="9" t="s">
+      <c r="O45" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="O45" s="4">
+      <c r="P45" s="4">
         <v>146.19999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>49</v>
       </c>
@@ -7183,40 +7304,43 @@
       <c r="C46" s="12">
         <v>636</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D46" s="20">
         <f t="shared" si="0"/>
         <v>636</v>
       </c>
       <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="8" t="str">
+      <c r="F46" s="33"/>
+      <c r="G46" s="33">
+        <v>636</v>
+      </c>
+      <c r="H46" s="33"/>
+      <c r="I46" s="8" t="str">
         <f>VLOOKUP(A46,[1]Лист1!$A:$B,2,0)</f>
         <v>SU003578</v>
       </c>
-      <c r="I46" s="8" t="s">
+      <c r="J46" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="J46" s="4">
+      <c r="K46" s="4">
         <v>136.4</v>
       </c>
-      <c r="K46" s="4">
+      <c r="L46" s="4">
         <v>129.80000000000001</v>
       </c>
-      <c r="L46" s="13">
+      <c r="M46" s="13">
         <v>475.6</v>
       </c>
-      <c r="M46" s="4">
+      <c r="N46" s="4">
         <v>242</v>
       </c>
-      <c r="N46" s="9" t="s">
+      <c r="O46" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="O46" s="4">
+      <c r="P46" s="4">
         <v>421.8</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>50</v>
       </c>
@@ -7226,40 +7350,43 @@
       <c r="C47" s="12">
         <v>336</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D47" s="20">
         <f t="shared" si="0"/>
         <v>336</v>
       </c>
       <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="8" t="str">
+      <c r="F47" s="33"/>
+      <c r="G47" s="33">
+        <v>336</v>
+      </c>
+      <c r="H47" s="33"/>
+      <c r="I47" s="8" t="str">
         <f>VLOOKUP(A47,[1]Лист1!$A:$B,2,0)</f>
         <v>SU003580</v>
       </c>
-      <c r="I47" s="8" t="s">
+      <c r="J47" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="J47" s="4">
+      <c r="K47" s="4">
         <v>127.4</v>
       </c>
-      <c r="K47" s="4">
+      <c r="L47" s="4">
         <v>118.6</v>
       </c>
-      <c r="L47" s="13">
+      <c r="M47" s="13">
         <v>390</v>
       </c>
-      <c r="M47" s="4">
+      <c r="N47" s="4">
         <v>218.2</v>
       </c>
-      <c r="N47" s="9" t="s">
+      <c r="O47" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="O47" s="4">
+      <c r="P47" s="4">
         <v>741.2</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>51</v>
       </c>
@@ -7269,38 +7396,41 @@
       <c r="C48" s="12">
         <v>48.6</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D48" s="20">
         <f t="shared" si="0"/>
         <v>48.6</v>
       </c>
       <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="8" t="str">
+      <c r="F48" s="33"/>
+      <c r="G48" s="33">
+        <v>48.6</v>
+      </c>
+      <c r="H48" s="33"/>
+      <c r="I48" s="8" t="str">
         <f>VLOOKUP(A48,[1]Лист1!$A:$B,2,0)</f>
         <v>SU003012</v>
       </c>
-      <c r="I48" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="J48" s="4">
+      <c r="J48" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K48" s="4">
         <v>3.2399999999999998</v>
       </c>
-      <c r="K48" s="4">
+      <c r="L48" s="4">
         <v>8.1</v>
       </c>
-      <c r="L48" s="13">
+      <c r="M48" s="13">
         <v>32.799999999999997</v>
       </c>
-      <c r="M48" s="4">
+      <c r="N48" s="4">
         <v>18.899999999999999</v>
       </c>
-      <c r="N48" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="O48" s="4"/>
+      <c r="O48" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="P48" s="4"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>52</v>
       </c>
@@ -7310,41 +7440,44 @@
       <c r="C49" s="12">
         <v>135</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D49" s="20">
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
       <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="8" t="str">
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33">
+        <v>135</v>
+      </c>
+      <c r="I49" s="8" t="str">
         <f>VLOOKUP(A49,[1]Лист1!$A:$B,2,0)</f>
         <v>SU003010</v>
       </c>
-      <c r="I49" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="J49" s="4">
+      <c r="J49" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K49" s="4">
         <v>52</v>
       </c>
-      <c r="K49" s="4">
+      <c r="L49" s="4">
         <v>49</v>
       </c>
-      <c r="L49" s="4">
+      <c r="M49" s="4">
         <v>60</v>
       </c>
-      <c r="M49" s="13">
+      <c r="N49" s="13">
         <v>86</v>
       </c>
-      <c r="N49" s="9" t="s">
+      <c r="O49" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="O49" s="4">
+      <c r="P49" s="4">
         <v>270</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O1" xr:uid="{EC1E7A44-6E9F-472A-B7AF-E7E8A907564E}"/>
+  <autoFilter ref="A1:P1" xr:uid="{EC1E7A44-6E9F-472A-B7AF-E7E8A907564E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
